--- a/ProtoConfig/Config/语言_共用.xlsx
+++ b/ProtoConfig/Config/语言_共用.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Language#公用语言" sheetId="6" r:id="rId1"/>
-    <sheet name="Language#枚举名称" sheetId="7" r:id="rId2"/>
+    <sheet name="Language#UI面板" sheetId="8" r:id="rId2"/>
+    <sheet name="Language#枚举名称" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="725">
   <si>
     <r>
       <rPr>
@@ -3190,6 +3191,24 @@
   </si>
   <si>
     <t>AD Reward</t>
+  </si>
+  <si>
+    <t>Setting_Music</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Setting_Sound</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Sound</t>
   </si>
   <si>
     <t>EEquipSortType.Star</t>
@@ -5559,9 +5578,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -5598,15 +5617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5627,7 +5638,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5641,11 +5667,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5654,14 +5679,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5682,30 +5699,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5719,25 +5745,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5780,7 +5799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5792,7 +5829,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5804,163 +5973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6085,13 +6104,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6107,30 +6139,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6152,18 +6160,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6182,6 +6183,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6190,10 +6209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6202,16 +6221,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6220,115 +6239,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6856,6 +6875,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_453" displayName="表1_453" ref="A4:F131" totalsRowShown="0">
+  <autoFilter ref="A4:F131"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="zh_cn"/>
+    <tableColumn id="3" name="zh_tw"/>
+    <tableColumn id="4" name="en"/>
+    <tableColumn id="5" name="ja"/>
+    <tableColumn id="6" name="ko"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_452" displayName="表1_452" ref="A4:F120" totalsRowShown="0">
   <autoFilter ref="A4:F120"/>
   <tableColumns count="6">
@@ -7130,10 +7164,10 @@
   <sheetPr/>
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -9213,10 +9247,1201 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="D9 B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="15.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" s="25" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A5" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" s="26" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" s="26" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" s="26" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A37" s="11"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" s="26" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" s="26" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A47" s="11"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" s="25" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="11"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:6">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:6">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:6">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:6">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:6">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:6">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:6">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:6">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:6">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:6">
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:6">
+      <c r="A124" s="15"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:6">
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:6">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:6">
+      <c r="A127" s="11"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:6">
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:6">
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:6">
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:6">
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
@@ -9320,32 +10545,32 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="11" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -9360,64 +10585,64 @@
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>429</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
@@ -9432,29 +10657,29 @@
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>320</v>
@@ -9464,13 +10689,13 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="11" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>324</v>
@@ -9480,13 +10705,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>327</v>
@@ -9496,80 +10721,80 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="11" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="11" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
@@ -9584,13 +10809,13 @@
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>54</v>
@@ -9600,64 +10825,64 @@
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -9672,80 +10897,80 @@
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
@@ -9768,29 +10993,29 @@
     </row>
     <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>137</v>
@@ -9800,32 +11025,32 @@
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="11" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
@@ -9840,96 +11065,96 @@
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="11" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="11" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="11" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="11" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
@@ -9944,48 +11169,48 @@
     </row>
     <row r="48" customHeight="1" spans="1:6">
       <c r="A48" s="15" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
     </row>
     <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="15" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
     </row>
     <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="15" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
@@ -10000,29 +11225,29 @@
     </row>
     <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
     </row>
     <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>68</v>
@@ -10032,13 +11257,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>64</v>
@@ -10056,64 +11281,64 @@
     </row>
     <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
@@ -10128,32 +11353,32 @@
     </row>
     <row r="61" customHeight="1" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
     </row>
     <row r="62" customHeight="1" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
@@ -10168,102 +11393,102 @@
     </row>
     <row r="64" customHeight="1" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:6">
       <c r="A65" s="11" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:6">
       <c r="A66" s="11" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:6">
       <c r="A67" s="11" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:6">
       <c r="A68" s="11" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:6">
@@ -10276,13 +11501,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:6">
       <c r="A70" s="11" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>54</v>
@@ -10292,64 +11517,64 @@
     </row>
     <row r="71" customHeight="1" spans="1:6">
       <c r="A71" s="11" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" customHeight="1" spans="1:6">
       <c r="A72" s="11" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" customHeight="1" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" customHeight="1" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="13"/>
@@ -10364,48 +11589,48 @@
     </row>
     <row r="76" customHeight="1" spans="1:6">
       <c r="A76" s="15" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" customHeight="1" spans="1:6">
       <c r="A77" s="15" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="13"/>
     </row>
     <row r="78" customHeight="1" spans="1:6">
       <c r="A78" s="15" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="13"/>
@@ -10420,240 +11645,240 @@
     </row>
     <row r="80" customHeight="1" spans="1:6">
       <c r="A80" s="17" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" customHeight="1" spans="1:6">
       <c r="A81" s="17" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" customHeight="1" spans="1:6">
       <c r="A82" s="17" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="13"/>
     </row>
     <row r="83" customHeight="1" spans="1:6">
       <c r="A83" s="20" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" customHeight="1" spans="1:6">
       <c r="A84" s="17" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" customHeight="1" spans="1:6">
       <c r="A85" s="17" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" customHeight="1" spans="1:6">
       <c r="A86" s="17" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" customHeight="1" spans="1:6">
       <c r="A87" s="17" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="13"/>
     </row>
     <row r="88" customHeight="1" spans="1:6">
       <c r="A88" s="17" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="13"/>
     </row>
     <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="17" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" customHeight="1" spans="1:6">
       <c r="A90" s="17" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="20" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="13"/>
     </row>
     <row r="92" customHeight="1" spans="1:6">
       <c r="A92" s="21" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="13"/>
     </row>
     <row r="93" customHeight="1" spans="1:6">
       <c r="A93" s="21" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" customHeight="1" spans="1:6">
       <c r="A94" s="21" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="13"/>
@@ -10668,192 +11893,192 @@
     </row>
     <row r="96" customHeight="1" spans="1:6">
       <c r="A96" s="23" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" customHeight="1" spans="1:6">
       <c r="A97" s="23" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="13"/>
     </row>
     <row r="98" customHeight="1" spans="1:6">
       <c r="A98" s="23" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" customHeight="1" spans="1:6">
       <c r="A99" s="23" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" customHeight="1" spans="1:6">
       <c r="A100" s="23" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" customHeight="1" spans="1:6">
       <c r="A101" s="23" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" customHeight="1" spans="1:6">
       <c r="A102" s="23" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="13"/>
     </row>
     <row r="103" customHeight="1" spans="1:6">
       <c r="A103" s="23" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" customHeight="1" spans="1:6">
       <c r="A104" s="23" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" customHeight="1" spans="1:6">
       <c r="A105" s="23" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" customHeight="1" spans="1:6">
       <c r="A106" s="23" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" customHeight="1" spans="1:6">
       <c r="A107" s="11" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="13"/>

--- a/ProtoConfig/Config/语言_共用.xlsx
+++ b/ProtoConfig/Config/语言_共用.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Language#公用语言" sheetId="6" r:id="rId1"/>
+    <sheet name="Language#颜色品质" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="442">
   <si>
     <r>
       <rPr>
@@ -3189,6 +3190,60 @@
   </si>
   <si>
     <t>AD Reward</t>
+  </si>
+  <si>
+    <t>EQuality.Waste</t>
+  </si>
+  <si>
+    <t>废品</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>EQuality.Normal</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>EQuality.Good</t>
+  </si>
+  <si>
+    <t>优秀</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>EQuality.Rare</t>
+  </si>
+  <si>
+    <t>珍稀</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>EQuality.Peerless</t>
+  </si>
+  <si>
+    <t>绝世</t>
+  </si>
+  <si>
+    <t>Peerless</t>
+  </si>
+  <si>
+    <t>EQuality.Tale</t>
+  </si>
+  <si>
+    <t>传奇</t>
+  </si>
+  <si>
+    <t>Tale</t>
   </si>
 </sst>
 </file>
@@ -3196,10 +3251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3229,7 +3284,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3243,14 +3327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3259,7 +3335,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3280,9 +3372,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3296,29 +3412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3328,45 +3421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3393,7 +3448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3411,7 +3490,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +3544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,7 +3580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3447,67 +3598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,61 +3628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,8 +3747,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3715,6 +3800,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3725,48 +3821,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3779,10 +3834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3791,133 +3846,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3972,6 +4027,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3985,10 +4044,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4243,6 +4298,21 @@
     <tableColumn id="4" name="En" dataDxfId="3"/>
     <tableColumn id="5" name="Ja" dataDxfId="4"/>
     <tableColumn id="6" name="Ko" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_452" displayName="表1_452" ref="A4:F131" totalsRowShown="0">
+  <autoFilter ref="A4:F131"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Zh_cn"/>
+    <tableColumn id="3" name="Zh_tw"/>
+    <tableColumn id="4" name="En"/>
+    <tableColumn id="5" name="Ja"/>
+    <tableColumn id="6" name="Ko"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4508,8 +4578,8 @@
   <sheetPr/>
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -4614,670 +4684,670 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="17"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="17"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="17"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -5286,15 +5356,15 @@
       <c r="C43" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -5303,15 +5373,15 @@
       <c r="C44" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -5320,31 +5390,31 @@
       <c r="C45" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -5353,241 +5423,241 @@
       <c r="C47" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" customHeight="1" spans="1:6">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" customHeight="1" spans="1:6">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" customHeight="1" spans="1:6">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" customHeight="1" spans="1:6">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:6">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="19"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="19"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E59" s="13"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="19"/>
     </row>
     <row r="60" customHeight="1" spans="1:6">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="19"/>
     </row>
     <row r="61" customHeight="1" spans="1:6">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" customHeight="1" spans="1:6">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>241</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -5596,899 +5666,899 @@
       <c r="C62" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="13"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="19"/>
     </row>
     <row r="63" customHeight="1" spans="1:6">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" customHeight="1" spans="1:6">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" customHeight="1" spans="1:6">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" customHeight="1" spans="1:6">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" customHeight="1" spans="1:6">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" customHeight="1" spans="1:6">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>280</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" customHeight="1" spans="1:6">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" customHeight="1" spans="1:6">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="14" t="s">
         <v>287</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" customHeight="1" spans="1:6">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" customHeight="1" spans="1:6">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" customHeight="1" spans="1:6">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" customHeight="1" spans="1:6">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="14" t="s">
         <v>299</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" customHeight="1" spans="1:6">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>303</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" customHeight="1" spans="1:6">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>307</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" customHeight="1" spans="1:6">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="14" t="s">
         <v>311</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" customHeight="1" spans="1:6">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>315</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" customHeight="1" spans="1:6">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" customHeight="1" spans="1:6">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" customHeight="1" spans="1:6">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="14" t="s">
         <v>319</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" customHeight="1" spans="1:6">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" customHeight="1" spans="1:6">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" customHeight="1" spans="1:6">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="14" t="s">
         <v>329</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" customHeight="1" spans="1:6">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" customHeight="1" spans="1:6">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="14" t="s">
         <v>333</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" customHeight="1" spans="1:6">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="14" t="s">
         <v>337</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" customHeight="1" spans="1:6">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="14" t="s">
         <v>341</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" customHeight="1" spans="1:6">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="14" t="s">
         <v>345</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" customHeight="1" spans="1:6">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" customHeight="1" spans="1:6">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" customHeight="1" spans="1:6">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="16"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="17"/>
     </row>
     <row r="98" customHeight="1" spans="1:6">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="16"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" customHeight="1" spans="1:6">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="17"/>
     </row>
     <row r="100" customHeight="1" spans="1:6">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="17"/>
     </row>
     <row r="101" customHeight="1" spans="1:6">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" customHeight="1" spans="1:6">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" customHeight="1" spans="1:6">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" customHeight="1" spans="1:6">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" customHeight="1" spans="1:6">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="17"/>
     </row>
     <row r="106" customHeight="1" spans="1:6">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="17"/>
     </row>
     <row r="107" customHeight="1" spans="1:6">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E107" s="14"/>
-      <c r="F107" s="16"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="17"/>
     </row>
     <row r="108" customHeight="1" spans="1:6">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="16"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="17"/>
     </row>
     <row r="109" customHeight="1" spans="1:6">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="16"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="17"/>
     </row>
     <row r="110" customHeight="1" spans="1:6">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="16"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" customHeight="1" spans="1:6">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="16"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="17"/>
     </row>
     <row r="112" customHeight="1" spans="1:6">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="16"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="17"/>
     </row>
     <row r="113" customHeight="1" spans="1:6">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="16"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" customHeight="1" spans="1:6">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="16"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" customHeight="1" spans="1:6">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="16"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="17"/>
     </row>
     <row r="116" customHeight="1" spans="1:6">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" customHeight="1" spans="1:6">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="16"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="118" customHeight="1" spans="1:6">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="16"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="17"/>
     </row>
     <row r="119" customHeight="1" spans="1:6">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="16"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="17"/>
     </row>
     <row r="120" customHeight="1" spans="1:6">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="16"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="17"/>
     </row>
     <row r="121" customHeight="1" spans="1:6">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="16"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="17"/>
     </row>
     <row r="122" customHeight="1" spans="1:6">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="16"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" customHeight="1" spans="1:6">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="16"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="17"/>
     </row>
     <row r="124" customHeight="1" spans="1:6">
       <c r="A124" s="20" t="s">
@@ -6497,14 +6567,14 @@
       <c r="B124" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="17"/>
     </row>
     <row r="125" customHeight="1" spans="1:6">
       <c r="A125" s="20" t="s">
@@ -6513,70 +6583,1301 @@
       <c r="B125" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="16"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="17"/>
     </row>
     <row r="126" customHeight="1" spans="1:6">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="16"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="17"/>
     </row>
     <row r="127" customHeight="1" spans="1:6">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="16"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="17"/>
     </row>
     <row r="128" customHeight="1" spans="1:6">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="16"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="17"/>
     </row>
     <row r="129" customHeight="1" spans="1:6">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="16"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="17"/>
     </row>
     <row r="130" customHeight="1" spans="1:6">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="16"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="17"/>
     </row>
     <row r="131" customHeight="1" spans="1:6">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="16"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42" style="4" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="15.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:6">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:6">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:6">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:6">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:6">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:6">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:6">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:6">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:6">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:6">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:6">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:6">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:6">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:6">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:6">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:6">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:6">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:6">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:6">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
